--- a/Datasets/SAPA18_IO_Plate02_12092022_NPX_annotated_4.2023_LEWIS.xlsx
+++ b/Datasets/SAPA18_IO_Plate02_12092022_NPX_annotated_4.2023_LEWIS.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoaleman/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a123/Desktop/CMU/Capstone/CRS-Detection/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FA49292-3677-3142-8A58-4B221E38D595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9CB8D2-16D2-7642-8BFF-579230960059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="3040" windowWidth="28800" windowHeight="14100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPX Data" sheetId="1" r:id="rId1"/>
     <sheet name="Clinical Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Clinical Data'!$J$1:$J$94</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="13" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="578">
   <si>
     <t>SAPA18_IO_Plate02_12092022</t>
   </si>
@@ -1766,6 +1770,12 @@
   <si>
     <t>P02_HDPlasma_1017</t>
   </si>
+  <si>
+    <t>Count of Plate ID</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
 </sst>
 </file>
 
@@ -1829,7 +1839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1857,6 +1867,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1873,6 +1885,352 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tanyue Yao" refreshedDate="45593.494728240737" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="89" xr:uid="{2EBB2F00-B7C3-B24E-9085-DA2307A98FA6}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="DE1:DE90" sheet="Clinical Data"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Plate ID" numFmtId="0">
+      <sharedItems count="2">
+        <s v="SAPA18_IO_Plate02_12092022"/>
+        <s v="SAPA18_IO_Plate03_12212022"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="89">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADC44A5E-EC36-5F4F-9B6B-B314B6CACAD6}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A2:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Plate ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2141,7 +2499,7 @@
   <dimension ref="A1:CS98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD98"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -60895,4 +61253,53 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938DBEFD-2CC3-D74B-83A6-FE5DAF3CC6FA}">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B5" s="15">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>